--- a/Assets/Data/Table/Enum/Unit.xlsx
+++ b/Assets/Data/Table/Enum/Unit.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Storage\UnityProject\ProjectS\Assets\Data\Table\Enum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{129686AF-5D96-4EC2-87DD-2DD244CA750D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5280D59-D86C-43E4-AAFA-53B2D83E6834}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15360" yWindow="0" windowWidth="15360" windowHeight="25464" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="25680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Unit" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="93">
   <si>
     <t>그룹 내 아이템 중 하나만 지급 (확률은 비율로 정함 ex. 1:1:1)</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -96,10 +96,6 @@
   </si>
   <si>
     <t>Enum</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Index</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -550,7 +546,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -591,7 +587,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -872,122 +867,103 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q40"/>
+  <dimension ref="A1:P40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.09765625" defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="13.59765625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.59765625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="50.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.19921875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="3.09765625" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="3.09765625" style="1"/>
+    <col min="2" max="2" width="15.796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="50.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.19921875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="3.09765625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="3.09765625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="4" t="s">
         <v>9</v>
       </c>
+      <c r="C1" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="D1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="5">
-        <v>0</v>
-      </c>
-      <c r="C2" s="5" t="s">
+      <c r="B2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="C2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="6"/>
-      <c r="G2" s="18" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="D2" s="6"/>
+      <c r="F2" s="18" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="5">
-        <v>1</v>
-      </c>
-      <c r="C3" s="5" t="s">
+      <c r="B3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="C3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="6"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="D3" s="6"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="5">
-        <v>2</v>
-      </c>
-      <c r="C4" s="5" t="s">
+      <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="C4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="6"/>
-      <c r="G4" s="18" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="D4" s="6"/>
+      <c r="F4" s="18" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="5">
-        <v>3</v>
-      </c>
-      <c r="C5" s="5" t="s">
+      <c r="B5" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="C5" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="E5" s="6"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="D5" s="6"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6" s="7">
-        <v>0</v>
-      </c>
-      <c r="C6" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="C6" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="19" t="str" cm="1">
-        <f t="array" ref="E6">IFERROR(
-_xlfn.SWITCH(D6,
+      <c r="D6" s="19" t="str" cm="1">
+        <f t="array" ref="D6">IFERROR(
+_xlfn.SWITCH(C6,
 "==","Equal",
 "&gt;=","GreaterEqual",
 "&lt;=","LessEqual",
@@ -1006,26 +982,23 @@
 "")</f>
         <v>None</v>
       </c>
-      <c r="G6" s="18" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="F6" s="18" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B7" s="7">
-        <v>1</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="19" t="str" cm="1">
-        <f t="array" ref="E7">IFERROR(
-_xlfn.SWITCH(D7,
+      <c r="C7" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="19" t="str" cm="1">
+        <f t="array" ref="D7">IFERROR(
+_xlfn.SWITCH(C7,
 "==","Equal",
 "&gt;=","GreaterEqual",
 "&lt;=","LessEqual",
@@ -1045,22 +1018,19 @@
         <v>Equal</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B8" s="7">
-        <v>2</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="19" t="str" cm="1">
-        <f t="array" ref="E8">IFERROR(
-_xlfn.SWITCH(D8,
+      <c r="C8" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="19" t="str" cm="1">
+        <f t="array" ref="D8">IFERROR(
+_xlfn.SWITCH(C8,
 "==","Equal",
 "&gt;=","GreaterEqual",
 "&lt;=","LessEqual",
@@ -1079,26 +1049,23 @@
 "")</f>
         <v>NotEqual</v>
       </c>
-      <c r="G8" s="18" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="F8" s="18" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A9" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B9" s="7">
-        <v>3</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" s="19" t="str" cm="1">
-        <f t="array" ref="E9">IFERROR(
-_xlfn.SWITCH(D9,
+        <v>32</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="19" t="str" cm="1">
+        <f t="array" ref="D9">IFERROR(
+_xlfn.SWITCH(C9,
 "==","Equal",
 "&gt;=","GreaterEqual",
 "&lt;=","LessEqual",
@@ -1118,22 +1085,19 @@
         <v>GreaterThan</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A10" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B10" s="7">
-        <v>4</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="19" t="str" cm="1">
-        <f t="array" ref="E10">IFERROR(
-_xlfn.SWITCH(D10,
+      <c r="C10" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="19" t="str" cm="1">
+        <f t="array" ref="D10">IFERROR(
+_xlfn.SWITCH(C10,
 "==","Equal",
 "&gt;=","GreaterEqual",
 "&lt;=","LessEqual",
@@ -1152,26 +1116,23 @@
 "")</f>
         <v>LessThan</v>
       </c>
-      <c r="G10" s="18" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="F10" s="18" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A11" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" s="7">
-        <v>5</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" s="19" t="str" cm="1">
-        <f t="array" ref="E11">IFERROR(
-_xlfn.SWITCH(D11,
+        <v>32</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="19" t="str" cm="1">
+        <f t="array" ref="D11">IFERROR(
+_xlfn.SWITCH(C11,
 "==","Equal",
 "&gt;=","GreaterEqual",
 "&lt;=","LessEqual",
@@ -1191,22 +1152,19 @@
         <v>GreaterEqual</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A12" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B12" s="7">
-        <v>6</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E12" s="19" t="str" cm="1">
-        <f t="array" ref="E12">IFERROR(
-_xlfn.SWITCH(D12,
+      <c r="C12" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="19" t="str" cm="1">
+        <f t="array" ref="D12">IFERROR(
+_xlfn.SWITCH(C12,
 "==","Equal",
 "&gt;=","GreaterEqual",
 "&lt;=","LessEqual",
@@ -1225,26 +1183,23 @@
 "")</f>
         <v>LessEqual</v>
       </c>
-      <c r="H12" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="G12" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A13" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B13" s="7">
-        <v>7</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="19" t="str" cm="1">
-        <f t="array" ref="E13">IFERROR(
-_xlfn.SWITCH(D13,
+      <c r="C13" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="19" t="str" cm="1">
+        <f t="array" ref="D13">IFERROR(
+_xlfn.SWITCH(C13,
 "==","Equal",
 "&gt;=","GreaterEqual",
 "&lt;=","LessEqual",
@@ -1263,26 +1218,23 @@
 "")</f>
         <v>Include</v>
       </c>
-      <c r="H13" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="G13" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A14" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B14" s="7">
-        <v>8</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="19" t="str" cm="1">
-        <f t="array" ref="E14">IFERROR(
-_xlfn.SWITCH(D14,
+      <c r="C14" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="19" t="str" cm="1">
+        <f t="array" ref="D14">IFERROR(
+_xlfn.SWITCH(C14,
 "==","Equal",
 "&gt;=","GreaterEqual",
 "&lt;=","LessEqual",
@@ -1302,22 +1254,19 @@
         <v>Exclude</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A15" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B15" s="7">
-        <v>9</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E15" s="19" t="str" cm="1">
-        <f t="array" ref="E15">IFERROR(
-_xlfn.SWITCH(D15,
+      <c r="C15" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="19" t="str" cm="1">
+        <f t="array" ref="D15">IFERROR(
+_xlfn.SWITCH(C15,
 "==","Equal",
 "&gt;=","GreaterEqual",
 "&lt;=","LessEqual",
@@ -1336,26 +1285,23 @@
 "")</f>
         <v>AND</v>
       </c>
-      <c r="H15" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="G15" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A16" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" s="7">
-        <v>10</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E16" s="19" t="str" cm="1">
-        <f t="array" ref="E16">IFERROR(
-_xlfn.SWITCH(D16,
+      <c r="C16" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="19" t="str" cm="1">
+        <f t="array" ref="D16">IFERROR(
+_xlfn.SWITCH(C16,
 "==","Equal",
 "&gt;=","GreaterEqual",
 "&lt;=","LessEqual",
@@ -1374,32 +1320,29 @@
 "")</f>
         <v>OR</v>
       </c>
-      <c r="I16" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="N16" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q16" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="H16" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A17" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B17" s="7">
+        <v>32</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E17" s="19" t="str" cm="1">
-        <f t="array" ref="E17">IFERROR(
-_xlfn.SWITCH(D17,
+      <c r="D17" s="19" t="str" cm="1">
+        <f t="array" ref="D17">IFERROR(
+_xlfn.SWITCH(C17,
 "==","Equal",
 "&gt;=","GreaterEqual",
 "&lt;=","LessEqual",
@@ -1418,32 +1361,29 @@
 "")</f>
         <v>NOT</v>
       </c>
-      <c r="I17" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="N17" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q17" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="H17" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A18" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B18" s="7">
-        <v>12</v>
-      </c>
-      <c r="C18" s="7" t="b">
+        <v>32</v>
+      </c>
+      <c r="B18" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="D18" s="8" t="b">
+      <c r="C18" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="E18" s="19" t="str" cm="1">
-        <f t="array" ref="E18">IFERROR(
-_xlfn.SWITCH(D18,
+      <c r="D18" s="19" t="str" cm="1">
+        <f t="array" ref="D18">IFERROR(
+_xlfn.SWITCH(C18,
 "==","Equal",
 "&gt;=","GreaterEqual",
 "&lt;=","LessEqual",
@@ -1462,32 +1402,29 @@
 "")</f>
         <v>TRUE</v>
       </c>
-      <c r="I18" s="1" t="s">
+      <c r="H18" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="M18" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="N18" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q18" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="P18" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A19" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B19" s="7">
-        <v>13</v>
-      </c>
-      <c r="C19" s="7" t="b">
+        <v>32</v>
+      </c>
+      <c r="B19" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="D19" s="8" t="b">
+      <c r="C19" s="8" t="b">
         <v>0</v>
       </c>
-      <c r="E19" s="19" t="str" cm="1">
-        <f t="array" ref="E19">IFERROR(
-_xlfn.SWITCH(D19,
+      <c r="D19" s="19" t="str" cm="1">
+        <f t="array" ref="D19">IFERROR(
+_xlfn.SWITCH(C19,
 "==","Equal",
 "&gt;=","GreaterEqual",
 "&lt;=","LessEqual",
@@ -1506,342 +1443,279 @@
 "")</f>
         <v>FALSE</v>
       </c>
-      <c r="I19" s="1" t="s">
+      <c r="H19" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A20" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="12"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A21" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21" s="12"/>
+      <c r="G21" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="N19" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q19" s="1" t="s">
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A22" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D22" s="12"/>
+      <c r="G22" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A23" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D23" s="12"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A24" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D24" s="12"/>
+      <c r="F24" s="18" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A25" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" s="15"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A26" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D26" s="15"/>
+      <c r="F26" s="18" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A27" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="D27" s="15"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A28" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="D28" s="15"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A29" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="D29" s="15"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A30" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="B30" s="16" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A20" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="B20" s="11">
-        <v>0</v>
-      </c>
-      <c r="C20" s="11" t="s">
+      <c r="C30" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="D30" s="17"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A31" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="B31" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="C31" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="D31" s="17"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A32" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="B32" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="C32" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="D32" s="17"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A33" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="B33" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="C33" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="D33" s="17"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A34" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="B34" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="C34" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="D20" s="12" t="s">
+      <c r="D34" s="21"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A35" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="B35" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="C35" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="D35" s="21"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A36" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="B36" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="C36" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="D36" s="21"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A37" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="B37" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E20" s="12"/>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A21" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="B21" s="11">
-        <v>1</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="D21" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="E21" s="12"/>
-      <c r="H21" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A22" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="B22" s="11">
-        <v>2</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="D22" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="E22" s="12"/>
-      <c r="H22" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A23" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="B23" s="11">
-        <v>3</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="D23" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="E23" s="12"/>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A24" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="B24" s="11">
-        <v>4</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="D24" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="E24" s="12"/>
-      <c r="G24" s="18" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A25" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="B25" s="14">
-        <v>0</v>
-      </c>
-      <c r="C25" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D25" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="E25" s="15"/>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A26" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="B26" s="14">
-        <v>1</v>
-      </c>
-      <c r="C26" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="D26" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="E26" s="15"/>
-      <c r="G26" s="18" t="s">
+      <c r="C37" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D37" s="7"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A38" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C38" s="9" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A27" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="B27" s="14">
-        <v>2</v>
-      </c>
-      <c r="C27" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="D27" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="E27" s="15"/>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A28" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="B28" s="14">
-        <v>3</v>
-      </c>
-      <c r="C28" s="14" t="s">
+      <c r="D38" s="7"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A39" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="D28" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="E28" s="15"/>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A29" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="B29" s="14">
-        <v>4</v>
-      </c>
-      <c r="C29" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="D29" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="E29" s="15"/>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A30" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="B30" s="16">
-        <v>0</v>
-      </c>
-      <c r="C30" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="D30" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="E30" s="17"/>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A31" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="B31" s="16">
-        <v>1</v>
-      </c>
-      <c r="C31" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="D31" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="E31" s="17"/>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A32" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="B32" s="16">
-        <v>2</v>
-      </c>
-      <c r="C32" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="D32" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="E32" s="17"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A33" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="B33" s="16">
-        <v>3</v>
-      </c>
-      <c r="C33" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="D33" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="E33" s="17"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A34" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="B34" s="20">
-        <v>0</v>
-      </c>
-      <c r="C34" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="D34" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="E34" s="21"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A35" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="B35" s="20">
-        <v>1</v>
-      </c>
-      <c r="C35" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="D35" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="E35" s="21"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A36" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="B36" s="20">
-        <v>2</v>
-      </c>
-      <c r="C36" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="D36" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="E36" s="21"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A37" s="7" t="s">
+      <c r="B39" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="D39" s="7"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A40" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="B40" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="B37" s="7">
-        <v>0</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D37" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="E37" s="7"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A38" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="B38" s="7">
-        <v>1</v>
-      </c>
-      <c r="C38" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="D38" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="E38" s="7"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A39" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="B39" s="7">
-        <v>2</v>
-      </c>
-      <c r="C39" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="D39" s="22" t="s">
+      <c r="C40" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="E39" s="7"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A40" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="B40" s="7">
-        <v>3</v>
-      </c>
-      <c r="C40" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="D40" s="22" t="s">
-        <v>93</v>
-      </c>
-      <c r="E40" s="9"/>
+      <c r="D40" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/Assets/Data/Table/Enum/Unit.xlsx
+++ b/Assets/Data/Table/Enum/Unit.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Storage\UnityProject\ProjectS\Assets\Data\Table\Enum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5280D59-D86C-43E4-AAFA-53B2D83E6834}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B4530B5-C301-48F9-B932-E8F69BA710A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="25680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="99">
   <si>
     <t>그룹 내 아이템 중 하나만 지급 (확률은 비율로 정함 ex. 1:1:1)</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -421,6 +421,30 @@
   </si>
   <si>
     <t>캡슐</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttackCollider</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DetectCollider</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CharacterSizeCollider</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격 콜라이더 참조</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>감지 콜라이더 참조</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터 사이즈 콜라이더 참조</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -867,16 +891,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P40"/>
+  <dimension ref="A1:P43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.09765625" defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="13.59765625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.296875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="50.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.19921875" style="1" customWidth="1"/>
     <col min="5" max="5" width="3.09765625" style="1" customWidth="1"/>
@@ -1717,6 +1741,42 @@
       </c>
       <c r="D40" s="9"/>
     </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A41" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="D41" s="9"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A42" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="D42" s="9"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A43" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="D43" s="9"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
